--- a/Assets/StreamingAssets/Water.xlsx
+++ b/Assets/StreamingAssets/Water.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E67AB2-E936-AA4A-91AD-DF773204A4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EF3959-368E-6441-848B-3A04EA00A5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,14 +117,6 @@
     <t>DialogueVocal</t>
   </si>
   <si>
-    <t>Lee-Regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Investigate2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +142,30 @@
   </si>
   <si>
     <t>StoryScript14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other than that, the scene remains just as it was last night.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Thinking2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dee-Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspicious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There’s a pool of water on the ground outside the door, now still not dried.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -614,18 +630,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17">
+    <row r="2" spans="1:16" ht="34">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>18</v>
@@ -634,21 +656,24 @@
         <v>500</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17">
+    <row r="3" spans="1:16" ht="34">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -656,36 +681,36 @@
     </row>
     <row r="4" spans="1:16" ht="17">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="17">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -698,19 +723,13 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="17">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -720,14 +739,6 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="17">
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
